--- a/results/results_summary.xlsx
+++ b/results/results_summary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="507">
-  <si>
-    <t xml:space="preserve">tiny backup</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="962">
+  <si>
+    <t xml:space="preserve">Tiny YOLO v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOLO v3</t>
   </si>
   <si>
     <t xml:space="preserve">Tiny 70000</t>
@@ -37,12 +40,6 @@
     <t xml:space="preserve">Tiny 100000</t>
   </si>
   <si>
-    <t xml:space="preserve">tiny final</t>
-  </si>
-  <si>
-    <t xml:space="preserve">full backup</t>
-  </si>
-  <si>
     <t xml:space="preserve">Full 70000</t>
   </si>
   <si>
@@ -52,10 +49,37 @@
     <t xml:space="preserve">Full 90000</t>
   </si>
   <si>
-    <t xml:space="preserve">Ful 100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">full final</t>
+    <t xml:space="preserve">Full 100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full 102500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full 105000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full 107500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full 110000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full 112500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full 115000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full 117500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full 120000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full 122500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full 125000</t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 0</t>
@@ -64,28 +88,61 @@
     <t xml:space="preserve"> name = person</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 33.83 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 32.51 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 33.92 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 31.89 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 33.83 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 32.51 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 33.92 % </t>
+    <t xml:space="preserve"> ap = 63.21 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 64.11 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 61.69 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 64.91 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 63.21 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 64.11 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 61.69 % </t>
+    <t xml:space="preserve"> ap = 58.05 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 63.35 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 60.08 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 57.56 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 58.53 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 62.26 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 64.25 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 63.39 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 63.86 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 57.73 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 1</t>
@@ -94,28 +151,58 @@
     <t xml:space="preserve"> name = bicycle</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 19.61 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 19.66 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 20.47 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 20.06 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 19.61 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 19.66 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 20.47 % </t>
+    <t xml:space="preserve"> ap = 37.72 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 35.66 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 38.75 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 41.27 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 37.72 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 35.66 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 38.75 % </t>
+    <t xml:space="preserve"> ap = 34.27 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 39.84 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 37.03 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 36.22 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 39.56 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 42.02 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 41.72 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 41.09 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 40.70 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 40.89 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 2</t>
@@ -124,28 +211,58 @@
     <t xml:space="preserve"> name = cat</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 59.33 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 58.06 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 58.43 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 57.97 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 59.33 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 58.06 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 58.43 % </t>
+    <t xml:space="preserve"> ap = 70.65 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 72.22 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 77.04 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 79.31 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 70.65 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 72.22 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 77.04 % </t>
+    <t xml:space="preserve"> ap = 71.51 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 78.46 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 75.84 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 74.35 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 63.95 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 80.09 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 79.71 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 81.14 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 79.39 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 67.62 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 3</t>
@@ -154,28 +271,55 @@
     <t xml:space="preserve"> name = dog</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 42.44 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 39.32 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 43.36 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 42.62 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 42.44 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 39.32 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 43.36 % </t>
+    <t xml:space="preserve"> ap = 61.49 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 62.23 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 66.25 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 57.73 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 61.49 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 62.23 % </t>
+    <t xml:space="preserve"> ap = 60.16 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 66.40 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 63.30 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 62.81 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 59.85 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 65.20 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 64.47 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 66.61 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 68.42 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 64.88 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 4</t>
@@ -184,28 +328,58 @@
     <t xml:space="preserve"> name = backpack</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 9.99 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 10.03 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 10.17 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 10.27 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 9.99 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 10.03 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 10.17 % </t>
+    <t xml:space="preserve"> ap = 21.02 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 20.08 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 20.95 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 20.93 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 21.02 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 20.08 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 20.95 % </t>
+    <t xml:space="preserve"> ap = 22.18 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 22.40 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 22.26 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 20.32 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 21.51 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 25.02 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 24.09 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 23.80 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 24.72 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 23.61 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 5</t>
@@ -214,28 +388,55 @@
     <t xml:space="preserve"> name = umbrella</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 16.18 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 15.78 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 15.30 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 17.42 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 16.18 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 15.78 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 15.30 % </t>
+    <t xml:space="preserve"> ap = 34.28 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 33.31 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 26.70 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 40.20 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 34.28 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 33.31 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 26.70 % </t>
+    <t xml:space="preserve"> ap = 37.40 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 39.04 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 37.33 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 33.65 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 34.40 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 40.73 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 37.97 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 41.52 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 38.05 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 6</t>
@@ -244,28 +445,58 @@
     <t xml:space="preserve"> name = handbag</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 2.00 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 2.49 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 4.82 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 5.71 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 2.00 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 2.49 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 4.82 % </t>
+    <t xml:space="preserve"> ap = 14.90 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 15.88 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 14.26 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 16.47 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 14.90 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 15.88 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 14.26 % </t>
+    <t xml:space="preserve"> ap = 16.33 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 17.01 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 16.68 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 14.72 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 16.08 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 17.96 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 18.01 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 18.38 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 18.53 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 17.11 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 7</t>
@@ -274,28 +505,55 @@
     <t xml:space="preserve"> name = tie</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 6.23 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 14.09 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 13.34 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 7.74 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 6.23 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 14.09 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 13.34 % </t>
+    <t xml:space="preserve"> ap = 41.62 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 39.14 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 39.36 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 43.12 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 41.62 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 39.14 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 39.36 % </t>
+    <t xml:space="preserve"> ap = 41.80 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 44.93 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 40.22 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 35.22 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 44.57 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 43.30 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 44.03 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 45.05 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 39.61 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 8</t>
@@ -304,28 +562,58 @@
     <t xml:space="preserve"> name = suitcase</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 17.64 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 17.78 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 18.69 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 17.43 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 17.64 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 17.78 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 18.69 % </t>
+    <t xml:space="preserve"> ap = 34.43 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 31.92 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 27.61 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 37.59 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 34.43 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 31.92 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 27.61 % </t>
+    <t xml:space="preserve"> ap = 22.95 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 31.65 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 28.62 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 19.00 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 24.96 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 38.83 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 26.44 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 30.19 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 34.06 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 28.37 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 9</t>
@@ -334,28 +622,58 @@
     <t xml:space="preserve"> name = bottle</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 12.20 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 12.54 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 12.71 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 12.30 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 12.20 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 12.54 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 12.71 % </t>
+    <t xml:space="preserve"> ap = 37.26 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 36.00 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 39.92 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 40.56 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 37.26 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 36.00 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 39.92 % </t>
+    <t xml:space="preserve"> ap = 36.19 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 40.88 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 38.96 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 33.40 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 38.40 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 41.49 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 40.61 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 39.62 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 42.69 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 36.46 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 10</t>
@@ -364,28 +682,55 @@
     <t xml:space="preserve"> name = wine glass</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 14.64 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 17.83 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 16.00 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 16.86 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 14.64 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 17.83 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 16.00 % </t>
+    <t xml:space="preserve"> ap = 42.27 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 44.23 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 46.63 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 44.63 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 42.27 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 44.23 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 46.63 % </t>
+    <t xml:space="preserve"> ap = 42.76 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 45.57 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 42.35 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 43.42 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 46.38 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 45.79 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 44.89 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 45.52 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 40.27 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 11</t>
@@ -394,28 +739,58 @@
     <t xml:space="preserve"> name = cup</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 18.56 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 18.72 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 18.77 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 18.02 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 18.56 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 18.72 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 18.77 % </t>
+    <t xml:space="preserve"> ap = 41.01 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 43.56 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 43.94 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 44.58 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 41.01 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 43.56 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 43.94 % </t>
+    <t xml:space="preserve"> ap = 43.13 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 45.59 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 42.21 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 44.75 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 41.76 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 45.04 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 44.21 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 44.15 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 45.80 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 41.87 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 12</t>
@@ -424,28 +799,58 @@
     <t xml:space="preserve"> name = fork</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 10.61 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 11.50 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 9.26 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 10.67 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 10.61 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 11.50 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 9.26 % </t>
+    <t xml:space="preserve"> ap = 25.56 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 25.64 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 27.86 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 28.04 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 25.56 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 25.64 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 27.86 % </t>
+    <t xml:space="preserve"> ap = 25.87 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 30.89 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 27.78 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 27.74 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 28.03 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 27.69 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 27.82 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 29.11 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 29.87 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 25.52 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 13</t>
@@ -454,28 +859,55 @@
     <t xml:space="preserve"> name = knife</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 3.43 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 2.23 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 1.74 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 9.42 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 3.43 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 2.23 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 1.74 % </t>
+    <t xml:space="preserve"> ap = 17.47 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 13.97 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 14.83 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 18.89 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 17.47 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 13.97 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 14.83 % </t>
+    <t xml:space="preserve"> ap = 16.38 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 16.13 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 13.64 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 12.87 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 18.74 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 18.64 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 15.92 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 20.34 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 16.75 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 14</t>
@@ -484,28 +916,52 @@
     <t xml:space="preserve"> name = spoon</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 3.17 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 9.30 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 3.92 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 3.81 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 3.17 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 9.30 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 3.92 % </t>
+    <t xml:space="preserve"> ap = 14.25 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 16.23 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 17.33 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 17.18 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 14.25 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 16.23 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 17.33 % </t>
+    <t xml:space="preserve"> ap = 16.57 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 18.98 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 15.94 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 13.60 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 16.82 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 18.91 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 19.05 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 17.61 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 15</t>
@@ -514,28 +970,49 @@
     <t xml:space="preserve"> name = bowl</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 21.93 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 22.58 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 22.54 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 22.85 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 21.93 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 22.58 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 22.54 % </t>
+    <t xml:space="preserve"> ap = 40.17 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 41.31 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 43.62 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 40.17 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 41.31 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 39.62 % </t>
+    <t xml:space="preserve"> ap = 36.23 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 41.46 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 37.04 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 38.87 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 38.31 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 44.00 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 42.89 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 39.55 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 16</t>
@@ -544,28 +1021,55 @@
     <t xml:space="preserve"> name = chair</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 13.40 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 13.61 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 10.47 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 13.31 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 13.40 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 13.61 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 10.47 % </t>
+    <t xml:space="preserve"> ap = 30.76 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 29.39 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 24.45 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 35.07 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 30.76 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 29.39 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 24.45 % </t>
+    <t xml:space="preserve"> ap = 26.50 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 31.56 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 25.47 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 22.64 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 30.98 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 33.23 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 34.78 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 33.98 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 21.61 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 17</t>
@@ -574,28 +1078,55 @@
     <t xml:space="preserve"> name = couch</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 30.16 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 30.71 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 31.83 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 31.46 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 30.16 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 30.71 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 31.83 % </t>
+    <t xml:space="preserve"> ap = 41.35 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 44.19 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 42.28 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 48.38 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 41.35 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 44.19 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 42.28 % </t>
+    <t xml:space="preserve"> ap = 25.04 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 43.89 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 41.69 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 45.28 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 50.99 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 48.33 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 47.61 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 50.09 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 51.28 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 18</t>
@@ -613,16 +1144,46 @@
     <t xml:space="preserve"> ap = 16.06 % </t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 31.21 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 33.43 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 33.63 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 32.83 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 31.21 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 33.43 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 33.63 % </t>
+    <t xml:space="preserve"> ap = 32.19 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 35.02 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 35.17 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 33.38 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 32.97 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 37.28 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 35.99 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 34.32 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 36.43 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 36.69 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 19</t>
@@ -631,28 +1192,58 @@
     <t xml:space="preserve"> name = bed</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 42.15 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 39.88 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 40.72 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 39.05 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 42.15 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 39.88 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 40.72 % </t>
+    <t xml:space="preserve"> ap = 55.71 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 58.01 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 56.21 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 56.54 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 55.71 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 58.01 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 56.21 % </t>
+    <t xml:space="preserve"> ap = 28.22 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 55.68 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 49.56 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 49.30 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 56.35 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 60.89 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 53.83 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 57.62 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 58.61 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 56.88 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 20</t>
@@ -661,28 +1252,55 @@
     <t xml:space="preserve"> name = dining table</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 23.23 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 22.19 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 25.10 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 21.38 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 23.23 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 22.19 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 25.10 % </t>
+    <t xml:space="preserve"> ap = 38.80 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 36.62 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 38.51 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 39.29 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 38.80 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 36.62 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 38.51 % </t>
+    <t xml:space="preserve"> ap = 18.68 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 35.44 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 30.04 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 32.69 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 27.63 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 38.84 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 35.65 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 34.92 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 31.19 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 21</t>
@@ -691,28 +1309,58 @@
     <t xml:space="preserve"> name = toilet</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 53.04 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 53.10 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 55.06 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 54.14 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 53.04 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 53.10 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 55.06 % </t>
+    <t xml:space="preserve"> ap = 70.32 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 72.97 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 70.76 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 72.45 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 70.32 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 72.97 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 70.76 % </t>
+    <t xml:space="preserve"> ap = 67.83 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 68.61 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 70.81 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 66.45 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 66.95 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 72.95 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 73.56 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 72.67 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 72.60 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 69.77 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 22</t>
@@ -721,28 +1369,58 @@
     <t xml:space="preserve"> name = tv</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 45.41 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 48.07 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 47.73 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 47.17 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 45.41 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 48.07 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 47.73 % </t>
+    <t xml:space="preserve"> ap = 61.20 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 63.03 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 61.72 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 63.33 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 61.20 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 63.03 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 61.72 % </t>
+    <t xml:space="preserve"> ap = 60.63 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 65.01 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 63.52 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 63.38 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 63.13 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 65.26 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 65.43 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 65.23 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 65.94 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 66.27 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 23</t>
@@ -751,28 +1429,52 @@
     <t xml:space="preserve"> name = laptop</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 40.49 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 42.54 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 41.94 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 43.28 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 40.49 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 42.54 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 41.94 % </t>
+    <t xml:space="preserve"> ap = 63.85 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 65.09 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 63.34 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 66.09 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 63.85 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 65.09 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 63.34 % </t>
+    <t xml:space="preserve"> ap = 54.00 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 65.21 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 64.00 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 67.85 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 64.44 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 65.00 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 66.63 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 65.90 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 24</t>
@@ -781,28 +1483,55 @@
     <t xml:space="preserve"> name = mouse</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 10.70 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 11.42 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 15.47 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 14.39 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 10.70 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 11.42 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 15.47 % </t>
+    <t xml:space="preserve"> ap = 49.74 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 51.66 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 52.79 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 53.67 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 49.74 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 51.66 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 52.79 % </t>
+    <t xml:space="preserve"> ap = 55.83 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 51.74 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 53.30 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 55.49 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 57.24 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 54.15 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 56.39 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 58.52 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 51.47 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 25</t>
@@ -811,28 +1540,58 @@
     <t xml:space="preserve"> name = remote</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 1.71 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 3.19 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 2.91 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 5.39 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 1.71 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 3.19 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 2.91 % </t>
+    <t xml:space="preserve"> ap = 24.23 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 24.75 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 27.17 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 28.70 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 24.23 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 24.75 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 27.17 % </t>
+    <t xml:space="preserve"> ap = 28.89 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 29.43 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 27.68 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 26.73 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 28.95 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 33.00 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 31.61 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 30.09 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 33.62 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 28.09 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 26</t>
@@ -841,28 +1600,52 @@
     <t xml:space="preserve"> name = keyboard</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 30.36 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 32.87 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 32.01 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 29.88 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 30.36 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 32.87 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 32.01 % </t>
+    <t xml:space="preserve"> ap = 53.61 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 54.71 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 56.48 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 57.93 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 53.61 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 54.71 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 56.48 % </t>
+    <t xml:space="preserve"> ap = 49.54 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 50.90 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 55.35 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 54.75 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 61.29 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 53.33 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 58.31 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 57.42 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 27</t>
@@ -871,28 +1654,52 @@
     <t xml:space="preserve"> name = cell phone</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 12.18 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 13.53 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 13.92 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 12.74 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 12.18 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 13.53 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 13.92 % </t>
+    <t xml:space="preserve"> ap = 32.34 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 34.34 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 33.72 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 36.20 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 32.34 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 34.34 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 33.72 % </t>
+    <t xml:space="preserve"> ap = 35.73 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 35.70 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 35.89 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 35.80 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 36.29 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 37.50 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 37.51 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 33.50 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 28</t>
@@ -901,28 +1708,58 @@
     <t xml:space="preserve"> name = microwave</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 34.77 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 34.96 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 38.00 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 36.95 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 34.77 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 34.96 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 38.00 % </t>
+    <t xml:space="preserve"> ap = 54.35 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 60.81 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 59.42 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 60.17 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 54.35 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 60.81 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 59.42 % </t>
+    <t xml:space="preserve"> ap = 59.69 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 57.40 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 58.32 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 60.12 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 57.46 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 62.45 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 61.55 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 60.33 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 64.67 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 58.98 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 29</t>
@@ -931,28 +1768,58 @@
     <t xml:space="preserve"> name = oven</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 27.21 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 28.85 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 28.20 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 27.37 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 27.21 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 28.85 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 28.20 % </t>
+    <t xml:space="preserve"> ap = 42.94 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 42.78 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 42.99 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 43.25 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 42.94 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 42.78 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 42.99 % </t>
+    <t xml:space="preserve"> ap = 43.79 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 44.42 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 42.00 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 43.77 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 41.77 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 45.60 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 45.33 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 48.22 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 46.55 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 42.14 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 30</t>
@@ -961,28 +1828,55 @@
     <t xml:space="preserve"> name = toaster</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 2.82 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 10.12 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 10.16 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 10.65 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 2.82 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 10.12 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 10.16 % </t>
+    <t xml:space="preserve"> ap = 9.72 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 7.54 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 10.38 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 5.32 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 9.72 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 7.54 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 10.38 % </t>
+    <t xml:space="preserve"> ap = 10.32 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 11.27 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 11.39 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 12.32 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 10.25 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 11.91 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 10.35 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 10.22 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 13.96 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 31</t>
@@ -991,28 +1885,55 @@
     <t xml:space="preserve"> name = sink</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 23.40 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 25.54 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 25.18 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 25.22 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 23.40 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 25.54 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 25.18 % </t>
+    <t xml:space="preserve"> ap = 42.49 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 46.01 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 44.99 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 47.21 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 42.49 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 46.01 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 44.99 % </t>
+    <t xml:space="preserve"> ap = 48.55 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 43.73 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 40.51 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 42.50 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 48.41 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 46.40 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 47.67 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 47.82 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 41.83 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 32</t>
@@ -1021,28 +1942,52 @@
     <t xml:space="preserve"> name = refrigerator</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 24.15 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 27.60 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 25.73 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 29.32 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 24.15 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 27.60 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 25.73 % </t>
+    <t xml:space="preserve"> ap = 48.28 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 53.99 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 53.69 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 53.29 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 48.28 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 53.99 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 53.69 % </t>
+    <t xml:space="preserve"> ap = 51.40 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 53.57 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 49.64 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 50.20 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 56.77 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 54.42 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 57.52 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 55.77 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 33</t>
@@ -1051,21 +1996,18 @@
     <t xml:space="preserve"> name = book</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 1.68 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 3.18 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 1.13 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 1.47 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 1.68 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 3.18 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 1.13 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 10.32 % </t>
-  </si>
-  <si>
     <t xml:space="preserve"> ap = 15.15 % </t>
   </si>
   <si>
@@ -1075,34 +2017,79 @@
     <t xml:space="preserve"> ap = 10.91 % </t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 8.12 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 14.43 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 11.34 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 14.61 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 12.98 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 8.25 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 15.89 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 10.13 % </t>
+  </si>
+  <si>
     <t xml:space="preserve">class_id = 34</t>
   </si>
   <si>
     <t xml:space="preserve"> name = clock</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 35.46 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 33.04 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 32.80 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 28.63 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 35.46 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 33.04 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 32.80 % </t>
+    <t xml:space="preserve"> ap = 62.11 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 62.41 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 63.96 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 65.37 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 62.11 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 62.41 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 63.96 % </t>
+    <t xml:space="preserve"> ap = 62.89 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 59.01 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 61.34 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 58.20 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 64.65 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 66.02 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 67.61 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 35</t>
@@ -1111,28 +2098,58 @@
     <t xml:space="preserve"> name = vase</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 18.19 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 17.14 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 17.07 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 17.20 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 18.19 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 17.14 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 17.07 % </t>
+    <t xml:space="preserve"> ap = 39.49 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 38.49 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 39.10 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 45.14 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 39.49 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 38.49 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 39.10 % </t>
+    <t xml:space="preserve"> ap = 42.60 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 44.46 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 44.13 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 38.79 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 40.39 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 45.40 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 44.74 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 44.60 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 44.68 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 38.70 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 36</t>
@@ -1141,18 +2158,18 @@
     <t xml:space="preserve"> name = scissors</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 11.33 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 6.25 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 11.75 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 11.13 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 11.33 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 6.25 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 11.75 % </t>
-  </si>
-  <si>
     <t xml:space="preserve"> ap = 18.51 % </t>
   </si>
   <si>
@@ -1162,31 +2179,79 @@
     <t xml:space="preserve"> ap = 23.73 % </t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 25.69 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 23.50 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 26.83 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 23.91 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 26.89 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 30.08 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 28.55 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 24.97 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 27.42 % </t>
+  </si>
+  <si>
     <t xml:space="preserve">class_id = 37</t>
   </si>
   <si>
     <t xml:space="preserve"> name = teddy bear</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 36.02 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 31.13 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 35.01 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 36.02 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 31.13 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 36.69 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 53.57 % </t>
-  </si>
-  <si>
     <t xml:space="preserve"> ap = 49.96 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 51.74 % </t>
+    <t xml:space="preserve"> ap = 44.32 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 54.33 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 49.59 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 48.25 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 48.53 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 50.83 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 51.45 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 51.53 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 52.56 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 49.39 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 38</t>
@@ -1195,25 +2260,43 @@
     <t xml:space="preserve"> name = hair drier</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 0.02 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 0.06 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 0.04 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 0.08 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 0.02 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 0.06 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 0.04 % </t>
+    <t xml:space="preserve"> ap = 3.03 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 1.52 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 0.00 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 3.03 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 1.52 % </t>
+    <t xml:space="preserve"> ap = 1.82 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 0.91 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 3.41 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 9.09 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 0.61 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 4.55 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 39</t>
@@ -1222,25 +2305,55 @@
     <t xml:space="preserve"> name = toothbrush</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 3.23 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 3.90 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 2.64 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 4.25 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 3.23 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 3.90 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 2.64 % </t>
+    <t xml:space="preserve"> ap = 13.35 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 14.68 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 14.78 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 13.35 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 14.68 % </t>
+    <t xml:space="preserve"> ap = 14.57 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 19.43 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 15.55 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 16.52 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 18.26 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 19.27 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 20.10 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 20.56 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 20.63 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 15.80 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 40</t>
@@ -1249,22 +2362,46 @@
     <t xml:space="preserve"> name = food</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 12.31 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 12.82 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 9.93 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 12.31 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 12.82 % </t>
+    <t xml:space="preserve"> ap = 17.75 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 19.14 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 19.49 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 17.75 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 19.14 % </t>
+    <t xml:space="preserve"> ap = 19.91 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 20.45 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 16.84 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 17.37 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 20.41 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 20.73 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 21.30 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 16.25 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 41</t>
@@ -1273,28 +2410,55 @@
     <t xml:space="preserve"> name = sandal</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 10.69 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 12.66 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 15.07 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 12.69 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 10.69 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 12.66 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 15.07 % </t>
+    <t xml:space="preserve"> ap = 22.93 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 24.02 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 21.14 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 28.25 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 22.93 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 24.02 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 21.14 % </t>
+    <t xml:space="preserve"> ap = 23.97 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 24.06 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 26.05 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 24.07 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 27.34 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 28.67 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 28.75 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 27.46 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 26.23 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 42</t>
@@ -1303,28 +2467,52 @@
     <t xml:space="preserve"> name = light</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 22.17 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 21.58 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 22.46 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 22.48 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 22.17 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 21.58 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 22.46 % </t>
+    <t xml:space="preserve"> ap = 24.67 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 29.89 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 28.14 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 29.68 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 24.67 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 29.89 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 28.14 % </t>
+    <t xml:space="preserve"> ap = 26.66 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 29.99 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 25.55 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 24.81 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 32.84 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 29.04 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 31.94 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 27.93 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 43</t>
@@ -1333,25 +2521,55 @@
     <t xml:space="preserve"> name = pot</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 12.90 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 15.05 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 14.06 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 12.90 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 15.05 % </t>
+    <t xml:space="preserve"> ap = 7.64 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 11.74 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 9.62 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 15.58 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 7.64 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 11.74 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 9.62 % </t>
+    <t xml:space="preserve"> ap = 8.93 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 13.93 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 13.25 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 10.24 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 9.55 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 13.86 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 12.33 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 12.17 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 11.45 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 13.04 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 44</t>
@@ -1375,18 +2593,45 @@
     <t xml:space="preserve"> ap = 14.58 % </t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 12.96 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 15.00 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 16.76 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 12.48 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 10.04 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 20.58 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 20.23 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 17.06 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 19.37 % </t>
+  </si>
+  <si>
     <t xml:space="preserve">class_id = 45</t>
   </si>
   <si>
     <t xml:space="preserve"> name = slipper</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 7.13 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 10.71 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 7.13 % </t>
-  </si>
-  <si>
     <t xml:space="preserve"> ap = 18.99 % </t>
   </si>
   <si>
@@ -1396,31 +2641,82 @@
     <t xml:space="preserve"> ap = 20.28 % </t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 17.65 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 21.83 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 21.68 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 14.59 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 21.17 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 22.70 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 22.14 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 23.26 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 20.91 % </t>
+  </si>
+  <si>
     <t xml:space="preserve">class_id = 46</t>
   </si>
   <si>
     <t xml:space="preserve"> name = newspaper</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 12.45 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 15.62 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 15.49 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 16.67 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 12.45 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 15.62 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 15.49 % </t>
+    <t xml:space="preserve"> ap = 27.09 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 21.94 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 30.40 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 27.09 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 21.94 % </t>
+    <t xml:space="preserve"> ap = 23.57 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 23.60 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 17.17 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 14.65 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 23.28 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 26.06 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 26.26 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 24.85 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 47</t>
@@ -1429,28 +2725,49 @@
     <t xml:space="preserve"> name = lamp</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 21.85 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 30.30 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 30.10 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 27.16 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 21.85 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 30.30 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 30.10 % </t>
+    <t xml:space="preserve"> ap = 29.95 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 34.24 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 32.50 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 36.52 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 29.95 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 34.24 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 32.50 % </t>
+    <t xml:space="preserve"> ap = 15.82 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 20.31 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 19.57 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 27.79 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 25.51 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 27.41 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 20.26 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 48</t>
@@ -1459,28 +2776,52 @@
     <t xml:space="preserve"> name = shoe</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 21.09 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 22.20 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 24.32 % </t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 24.35 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 21.09 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 22.20 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 24.32 % </t>
+    <t xml:space="preserve"> ap = 31.58 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 35.55 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 32.54 % </t>
   </si>
   <si>
     <t xml:space="preserve"> ap = 34.37 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 31.58 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 35.55 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 32.54 % </t>
+    <t xml:space="preserve"> ap = 21.71 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 25.36 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 24.99 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 24.93 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 24.70 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 33.25 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 34.48 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 31.90 % </t>
   </si>
   <si>
     <t xml:space="preserve">class_id = 49</t>
@@ -1489,9 +2830,6 @@
     <t xml:space="preserve"> name = dish</t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 21.07 % </t>
-  </si>
-  <si>
     <t xml:space="preserve"> ap = 21.56 % </t>
   </si>
   <si>
@@ -1501,19 +2839,46 @@
     <t xml:space="preserve"> ap = 21.07 %</t>
   </si>
   <si>
+    <t xml:space="preserve"> ap = 32.68 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 34.64 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 34.43 %</t>
+  </si>
+  <si>
     <t xml:space="preserve"> ap = 36.91 % </t>
   </si>
   <si>
-    <t xml:space="preserve"> ap = 32.68 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 34.64 % </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ap = 34.43 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve"> ap = 25.99 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 29.64 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 30.76 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 26.40 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 26.99 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 29.59 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 32.18 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 36.66 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 37.16 % </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ap = 28.28 % </t>
   </si>
   <si>
     <t xml:space="preserve">precision</t>
@@ -1556,6 +2921,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1576,14 +2942,21 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1620,17 +2993,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1642,6 +3027,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF66FF00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1650,2074 +3095,3847 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:W64"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E73" activeCellId="0" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="13.3928571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.3928571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3928571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="16" min="8" style="0" width="13.3928571428571"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="13.3928571428571"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="13.3928571428571"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.3928571428571"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="13.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>11</v>
-      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="C2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="P2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="Q2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="R2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="S2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="0" t="s">
+      <c r="T2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="U2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="M3" s="0" t="s">
         <v>31</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>34</v>
+        <v>46</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="K4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="W4" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>46</v>
+        <v>64</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>44</v>
+        <v>66</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>67</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>51</v>
+        <v>71</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>56</v>
+        <v>84</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>39</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>61</v>
+        <v>90</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>66</v>
+        <v>103</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>64</v>
+        <v>105</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>106</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>71</v>
+        <v>110</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>76</v>
+        <v>123</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>74</v>
+        <v>125</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>81</v>
+        <v>130</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>86</v>
+        <v>142</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>84</v>
+        <v>144</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>91</v>
+        <v>149</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>96</v>
+        <v>162</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>94</v>
+        <v>164</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>165</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>101</v>
+        <v>169</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="W10" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>103</v>
+        <v>179</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>106</v>
+        <v>181</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>104</v>
+        <v>183</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>184</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>111</v>
+        <v>188</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="U11" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="W11" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>112</v>
+        <v>198</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>116</v>
+        <v>201</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>114</v>
+        <v>203</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>204</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>118</v>
+        <v>205</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>119</v>
+        <v>206</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>121</v>
+        <v>208</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="U12" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="W12" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>122</v>
+        <v>218</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>123</v>
+        <v>219</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>124</v>
+        <v>220</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>126</v>
+        <v>221</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>124</v>
+        <v>223</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>224</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>129</v>
+        <v>226</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>130</v>
+        <v>227</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>131</v>
+        <v>228</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="U13" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="W13" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>132</v>
+        <v>237</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>133</v>
+        <v>238</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>134</v>
+        <v>239</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>136</v>
+        <v>240</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>134</v>
+        <v>242</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>243</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>138</v>
+        <v>244</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>139</v>
+        <v>245</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>140</v>
+        <v>246</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>141</v>
+        <v>247</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="U14" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>142</v>
+        <v>257</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>143</v>
+        <v>258</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>144</v>
+        <v>259</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>146</v>
+        <v>260</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>144</v>
+        <v>262</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>263</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>148</v>
+        <v>264</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>149</v>
+        <v>265</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>150</v>
+        <v>266</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>151</v>
+        <v>267</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="U15" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="W15" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>152</v>
+        <v>277</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>153</v>
+        <v>278</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>154</v>
+        <v>279</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>156</v>
+        <v>280</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>154</v>
+        <v>282</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>283</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>158</v>
+        <v>284</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>159</v>
+        <v>285</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>160</v>
+        <v>286</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>161</v>
+        <v>287</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="W16" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>162</v>
+        <v>296</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>163</v>
+        <v>297</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>164</v>
+        <v>298</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>166</v>
+        <v>299</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>164</v>
+        <v>301</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>302</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>168</v>
+        <v>303</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>169</v>
+        <v>304</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>170</v>
+        <v>305</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>171</v>
+        <v>306</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="U17" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="W17" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>172</v>
+        <v>314</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>173</v>
+        <v>315</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>174</v>
+        <v>316</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>176</v>
+        <v>317</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>174</v>
+        <v>319</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>320</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>178</v>
+        <v>321</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>180</v>
+        <v>322</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>181</v>
+        <v>323</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="S18" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="U18" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="W18" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>182</v>
+        <v>331</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>183</v>
+        <v>332</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>184</v>
+        <v>333</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>186</v>
+        <v>334</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>184</v>
+        <v>336</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>337</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>188</v>
+        <v>338</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>189</v>
+        <v>339</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>190</v>
+        <v>340</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>191</v>
+        <v>341</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="U19" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="W19" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>192</v>
+        <v>350</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>193</v>
+        <v>351</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>66</v>
+        <v>352</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>195</v>
+        <v>353</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>66</v>
+        <v>355</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>356</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>197</v>
+        <v>357</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>198</v>
+        <v>358</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>199</v>
+        <v>359</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>200</v>
+        <v>360</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="S20" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="U20" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="W20" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>201</v>
+        <v>369</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>202</v>
+        <v>370</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>203</v>
+        <v>371</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>205</v>
+        <v>372</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>373</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>203</v>
+        <v>123</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>374</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>207</v>
+        <v>375</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>208</v>
+        <v>376</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>209</v>
+        <v>377</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>210</v>
+        <v>378</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="S21" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="U21" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="W21" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>211</v>
+        <v>388</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>212</v>
+        <v>389</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>213</v>
+        <v>390</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>215</v>
+        <v>391</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>213</v>
+        <v>393</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>394</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>217</v>
+        <v>395</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>218</v>
+        <v>396</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>219</v>
+        <v>397</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>220</v>
+        <v>398</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="U22" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="W22" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>221</v>
+        <v>408</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>222</v>
+        <v>409</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>223</v>
+        <v>410</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>225</v>
+        <v>411</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>223</v>
+        <v>413</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>414</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>227</v>
+        <v>415</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>228</v>
+        <v>416</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>229</v>
+        <v>417</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>230</v>
+        <v>418</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="R23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="U23" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="W23" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>231</v>
+        <v>427</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>232</v>
+        <v>428</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>233</v>
+        <v>429</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>235</v>
+        <v>430</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>431</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>233</v>
+        <v>432</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>433</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>237</v>
+        <v>434</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>238</v>
+        <v>435</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>239</v>
+        <v>436</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>240</v>
+        <v>437</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="R24" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="U24" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="W24" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>241</v>
+        <v>447</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>242</v>
+        <v>448</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>243</v>
+        <v>449</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>245</v>
+        <v>450</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>451</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>243</v>
+        <v>452</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>453</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>247</v>
+        <v>454</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>248</v>
+        <v>455</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>249</v>
+        <v>456</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>250</v>
+        <v>457</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="R25" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="S25" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="U25" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="W25" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>251</v>
+        <v>467</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>252</v>
+        <v>468</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>253</v>
+        <v>469</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>255</v>
+        <v>470</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>253</v>
+        <v>472</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>473</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>257</v>
+        <v>474</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>258</v>
+        <v>475</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>259</v>
+        <v>476</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>260</v>
+        <v>477</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="R26" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="S26" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="U26" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="W26" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>261</v>
+        <v>485</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>262</v>
+        <v>486</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>263</v>
+        <v>487</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>265</v>
+        <v>488</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>489</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>263</v>
+        <v>490</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>491</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>267</v>
+        <v>492</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>268</v>
+        <v>493</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>269</v>
+        <v>494</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>270</v>
+        <v>367</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="R27" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="S27" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="U27" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="W27" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>271</v>
+        <v>504</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>272</v>
+        <v>505</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>273</v>
+        <v>506</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>275</v>
+        <v>507</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>508</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>273</v>
+        <v>509</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>510</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>277</v>
+        <v>511</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>278</v>
+        <v>512</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>279</v>
+        <v>513</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>280</v>
+        <v>514</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="R28" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="S28" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="U28" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="W28" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>281</v>
+        <v>524</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>282</v>
+        <v>525</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>283</v>
+        <v>526</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>285</v>
+        <v>527</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>528</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>283</v>
+        <v>529</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>530</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>287</v>
+        <v>531</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>288</v>
+        <v>532</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>289</v>
+        <v>533</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>290</v>
+        <v>534</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="R29" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="S29" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U29" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="W29" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>291</v>
+        <v>542</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>292</v>
+        <v>543</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>293</v>
+        <v>544</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>295</v>
+        <v>545</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>546</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>293</v>
+        <v>547</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>548</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>297</v>
+        <v>549</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>298</v>
+        <v>550</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>299</v>
+        <v>551</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>300</v>
+        <v>375</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="O30" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="R30" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="S30" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="U30" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="W30" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>301</v>
+        <v>560</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>302</v>
+        <v>561</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>303</v>
+        <v>562</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>305</v>
+        <v>563</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>564</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>303</v>
+        <v>565</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>566</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>307</v>
+        <v>567</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>308</v>
+        <v>568</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>309</v>
+        <v>569</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>310</v>
+        <v>570</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="O31" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="P31" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="R31" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="S31" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="U31" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="W31" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>311</v>
+        <v>580</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>312</v>
+        <v>581</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>313</v>
+        <v>582</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>315</v>
+        <v>583</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>584</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>313</v>
+        <v>585</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>586</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>317</v>
+        <v>587</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>318</v>
+        <v>588</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>319</v>
+        <v>589</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>320</v>
+        <v>590</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="R32" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="S32" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="U32" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="W32" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>321</v>
+        <v>600</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>322</v>
+        <v>601</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>323</v>
+        <v>602</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>325</v>
+        <v>603</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>604</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>323</v>
+        <v>605</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>606</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>327</v>
+        <v>607</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>328</v>
+        <v>608</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>329</v>
+        <v>609</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>330</v>
+        <v>610</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="O33" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="P33" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="R33" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="S33" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="U33" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="W33" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>331</v>
+        <v>619</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>332</v>
+        <v>620</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>333</v>
+        <v>621</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>335</v>
+        <v>622</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>623</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>333</v>
+        <v>624</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>625</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>337</v>
+        <v>626</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>338</v>
+        <v>627</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>339</v>
+        <v>628</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>340</v>
+        <v>362</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="O34" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="P34" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="R34" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="S34" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="U34" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="W34" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>341</v>
+        <v>638</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>342</v>
+        <v>639</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>343</v>
+        <v>640</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>345</v>
+        <v>641</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>642</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>343</v>
+        <v>643</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>644</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>347</v>
+        <v>645</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>348</v>
+        <v>646</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>349</v>
+        <v>647</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>350</v>
+        <v>648</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="O35" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="P35" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="R35" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="S35" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="U35" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="W35" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>351</v>
+        <v>656</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>352</v>
+        <v>657</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>353</v>
+        <v>658</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>355</v>
+        <v>659</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>660</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>353</v>
+        <v>661</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>662</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>357</v>
+        <v>663</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>358</v>
+        <v>664</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>359</v>
+        <v>610</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>360</v>
+        <v>665</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="N36" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="O36" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="P36" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="R36" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="S36" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="U36" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="W36" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>361</v>
+        <v>673</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>362</v>
+        <v>674</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>363</v>
+        <v>675</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>365</v>
+        <v>676</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>677</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>363</v>
+        <v>678</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>679</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>367</v>
+        <v>680</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>368</v>
+        <v>681</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>369</v>
+        <v>682</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>370</v>
+        <v>683</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="N37" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="O37" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="P37" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="R37" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="S37" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="U37" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="W37" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>371</v>
+        <v>690</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>372</v>
+        <v>691</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>373</v>
+        <v>692</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>375</v>
+        <v>693</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>694</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>373</v>
+        <v>695</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>696</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>306</v>
+        <v>697</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>377</v>
+        <v>698</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>378</v>
+        <v>699</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>379</v>
+        <v>700</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="N38" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="O38" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="P38" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="R38" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="S38" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="U38" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="W38" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>380</v>
+        <v>710</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>381</v>
+        <v>711</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>382</v>
+        <v>712</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>384</v>
+        <v>713</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>714</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>382</v>
+        <v>715</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>716</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>386</v>
+        <v>717</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>89</v>
+        <v>718</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>387</v>
+        <v>584</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>388</v>
+        <v>719</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="N39" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="O39" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="P39" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="R39" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="S39" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="U39" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="W39" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>389</v>
+        <v>728</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>390</v>
+        <v>729</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>391</v>
+        <v>730</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>393</v>
+        <v>731</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>387</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>391</v>
+        <v>732</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>165</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>395</v>
+        <v>733</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>396</v>
+        <v>496</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>397</v>
+        <v>649</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>397</v>
+        <v>734</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="N40" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="O40" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="P40" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="R40" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="S40" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="U40" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="W40" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>398</v>
+        <v>744</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>399</v>
+        <v>745</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>400</v>
+        <v>746</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>402</v>
+        <v>747</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>748</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>400</v>
+        <v>749</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>750</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>404</v>
+        <v>751</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>405</v>
+        <v>751</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>115</v>
+        <v>752</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>406</v>
+        <v>753</v>
+      </c>
+      <c r="M41" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="N41" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="O41" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="P41" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="R41" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="S41" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="U41" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="W41" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>407</v>
+        <v>759</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>408</v>
+        <v>760</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>409</v>
+        <v>761</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>410</v>
+        <v>762</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>763</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>409</v>
+        <v>764</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>765</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>412</v>
+        <v>220</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>413</v>
+        <v>766</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>26</v>
+        <v>767</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>414</v>
+        <v>768</v>
+      </c>
+      <c r="M42" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="N42" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="O42" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="P42" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="R42" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="S42" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="U42" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="W42" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>415</v>
+        <v>778</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>416</v>
+        <v>779</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>417</v>
+        <v>298</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>419</v>
+        <v>780</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>781</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>417</v>
+        <v>782</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>783</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>421</v>
+        <v>44</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>422</v>
+        <v>784</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>423</v>
+        <v>785</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>424</v>
+        <v>786</v>
+      </c>
+      <c r="M43" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="N43" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="O43" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="P43" s="0" t="s">
+        <v>789</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="R43" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="S43" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="U43" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="W43" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>425</v>
+        <v>794</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>426</v>
+        <v>795</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>427</v>
+        <v>796</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>428</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>429</v>
+        <v>797</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>798</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="G44" s="0" t="s">
-        <v>427</v>
+        <v>799</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>800</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>431</v>
+        <v>801</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>432</v>
+        <v>802</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>433</v>
+        <v>803</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>434</v>
+        <v>804</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="N44" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="O44" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="P44" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="R44" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="S44" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="U44" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="W44" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>435</v>
+        <v>813</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>436</v>
+        <v>814</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>437</v>
+        <v>815</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>438</v>
+        <v>816</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>817</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>437</v>
+        <v>818</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>819</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>440</v>
+        <v>820</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>441</v>
+        <v>821</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>442</v>
+        <v>822</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>443</v>
+        <v>823</v>
+      </c>
+      <c r="M45" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="N45" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="O45" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="P45" s="0" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="R45" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="S45" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="U45" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="W45" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>444</v>
+        <v>831</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>445</v>
+        <v>832</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>348</v>
+        <v>282</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>447</v>
+        <v>833</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>834</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>348</v>
+        <v>835</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>836</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>124</v>
+        <v>837</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>449</v>
+        <v>838</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>96</v>
+        <v>839</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>450</v>
+        <v>840</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="N46" s="0" t="s">
+        <v>842</v>
+      </c>
+      <c r="O46" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="P46" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="R46" s="0" t="s">
+        <v>846</v>
+      </c>
+      <c r="S46" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="U46" s="0" t="s">
+        <v>849</v>
+      </c>
+      <c r="W46" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>451</v>
+        <v>850</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>452</v>
+        <v>851</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>453</v>
+        <v>852</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>454</v>
+        <v>853</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>854</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>453</v>
+        <v>662</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>855</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>455</v>
+        <v>856</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>456</v>
+        <v>242</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>457</v>
+        <v>857</v>
+      </c>
+      <c r="M47" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="N47" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="O47" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="P47" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="R47" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="S47" s="0" t="s">
+        <v>864</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="U47" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="W47" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>458</v>
+        <v>866</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>459</v>
+        <v>867</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>460</v>
+        <v>105</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>461</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>462</v>
+        <v>868</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>664</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>463</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>460</v>
+        <v>869</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>870</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>464</v>
+        <v>871</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>429</v>
+        <v>872</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>465</v>
+        <v>410</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>466</v>
+        <v>873</v>
+      </c>
+      <c r="M48" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="N48" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="O48" s="0" t="s">
+        <v>876</v>
+      </c>
+      <c r="P48" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="R48" s="0" t="s">
+        <v>878</v>
+      </c>
+      <c r="S48" s="0" t="s">
+        <v>879</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="U48" s="0" t="s">
+        <v>881</v>
+      </c>
+      <c r="W48" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>467</v>
+        <v>882</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>468</v>
+        <v>883</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>469</v>
+        <v>884</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>471</v>
+        <v>885</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>886</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="G49" s="0" t="s">
-        <v>469</v>
+        <v>887</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>816</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>473</v>
+        <v>888</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>474</v>
+        <v>889</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>475</v>
+        <v>890</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>476</v>
+        <v>891</v>
+      </c>
+      <c r="M49" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="N49" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="O49" s="0" t="s">
+        <v>894</v>
+      </c>
+      <c r="P49" s="0" t="s">
+        <v>895</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="R49" s="0" t="s">
+        <v>896</v>
+      </c>
+      <c r="S49" s="0" t="s">
+        <v>897</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="U49" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="W49" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>477</v>
+        <v>899</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>478</v>
+        <v>900</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>479</v>
+        <v>901</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>480</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>481</v>
+        <v>902</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>903</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>482</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>479</v>
+        <v>904</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>905</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>483</v>
+        <v>906</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>484</v>
+        <v>907</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>485</v>
+        <v>908</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>486</v>
+        <v>909</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="N50" s="0" t="s">
+        <v>910</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P50" s="0" t="s">
+        <v>911</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="R50" s="0" t="s">
+        <v>913</v>
+      </c>
+      <c r="S50" s="0" t="s">
+        <v>914</v>
+      </c>
+      <c r="T50" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="U50" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="W50" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>487</v>
+        <v>916</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>488</v>
+        <v>917</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>489</v>
+        <v>918</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>490</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>491</v>
+        <v>919</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>920</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="G51" s="0" t="s">
-        <v>492</v>
+        <v>921</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>922</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>493</v>
+        <v>923</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>494</v>
+        <v>924</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>495</v>
+        <v>925</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>496</v>
+        <v>926</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>927</v>
+      </c>
+      <c r="N51" s="0" t="s">
+        <v>928</v>
+      </c>
+      <c r="O51" s="0" t="s">
+        <v>929</v>
+      </c>
+      <c r="P51" s="0" t="s">
+        <v>919</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="R51" s="0" t="s">
+        <v>930</v>
+      </c>
+      <c r="S51" s="0" t="s">
+        <v>931</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="U51" s="0" t="s">
+        <v>933</v>
+      </c>
+      <c r="W51" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E52" s="0" t="s">
-        <v>497</v>
+      <c r="A52" s="0" t="s">
+        <v>934</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>942</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="M52" s="0" t="s">
+        <v>944</v>
+      </c>
+      <c r="N52" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="O52" s="0" t="s">
+        <v>946</v>
+      </c>
+      <c r="P52" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="R52" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="S52" s="0" t="s">
+        <v>950</v>
+      </c>
+      <c r="T52" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="U52" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="W52" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
-        <v>498</v>
-      </c>
-      <c r="C53" s="0" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="G53" s="0" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="I53" s="0" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="J53" s="0" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K53" s="0" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="L53" s="0" t="n">
-        <v>0.51</v>
+      <c r="D53" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
-        <v>499</v>
+        <v>953</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="E54" s="0" t="n">
-        <v>0.32</v>
+        <v>0.25</v>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>0.24</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="G54" s="0" t="n">
-        <v>0.31</v>
+        <v>0.24</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>0.61</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="J54" s="0" t="n">
-        <v>0.4</v>
+        <v>0.51</v>
       </c>
       <c r="K54" s="0" t="n">
-        <v>0.43</v>
+        <v>0.62</v>
       </c>
       <c r="L54" s="0" t="n">
-        <v>0.45</v>
+        <v>0.59</v>
+      </c>
+      <c r="M54" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="N54" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O54" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="P54" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="Q54" s="1" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="R54" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="S54" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T54" s="1" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="U54" s="0" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
-        <v>500</v>
+        <v>954</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E55" s="0" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>0.34</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="G55" s="0" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>0.4</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>0.51</v>
+        <v>0.43</v>
       </c>
       <c r="J55" s="0" t="n">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="K55" s="0" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="L55" s="0" t="n">
-        <v>0.48</v>
+        <v>0.36</v>
+      </c>
+      <c r="M55" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="N55" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O55" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="P55" s="0" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="Q55" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R55" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="S55" s="0" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="T55" s="1" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="U55" s="0" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="s">
-        <v>501</v>
+        <v>955</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>67515</v>
+        <v>0.28</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>70394</v>
-      </c>
-      <c r="E56" s="0" t="n">
-        <v>70571</v>
+        <v>0.28</v>
+      </c>
+      <c r="E56" s="1" t="n">
+        <v>0.28</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>74283</v>
-      </c>
-      <c r="G56" s="0" t="n">
-        <v>67515</v>
+        <v>0.27</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>0.48</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>96074</v>
+        <v>0.5</v>
       </c>
       <c r="J56" s="0" t="n">
-        <v>86772</v>
+        <v>0.48</v>
       </c>
       <c r="K56" s="0" t="n">
-        <v>93845</v>
+        <v>0.51</v>
       </c>
       <c r="L56" s="0" t="n">
-        <v>96903</v>
+        <v>0.45</v>
+      </c>
+      <c r="M56" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N56" s="0" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O56" s="0" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="P56" s="0" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="Q56" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R56" s="0" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S56" s="0" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="T56" s="1" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U56" s="0" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="s">
-        <v>502</v>
+        <v>956</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>208969</v>
+        <v>70394</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>218710</v>
-      </c>
-      <c r="E57" s="0" t="n">
-        <v>212603</v>
+        <v>70571</v>
+      </c>
+      <c r="E57" s="1" t="n">
+        <v>74283</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>231364</v>
-      </c>
-      <c r="G57" s="0" t="n">
-        <v>208969</v>
+        <v>67515</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>86772</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>59403</v>
+        <v>93845</v>
       </c>
       <c r="J57" s="0" t="n">
-        <v>54475</v>
+        <v>96903</v>
       </c>
       <c r="K57" s="0" t="n">
-        <v>65679</v>
+        <v>96074</v>
       </c>
       <c r="L57" s="0" t="n">
-        <v>93190</v>
+        <v>78962</v>
+      </c>
+      <c r="M57" s="0" t="n">
+        <v>85020</v>
+      </c>
+      <c r="N57" s="0" t="n">
+        <v>88123</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <v>84020</v>
+      </c>
+      <c r="P57" s="0" t="n">
+        <v>82720</v>
+      </c>
+      <c r="Q57" s="1" t="n">
+        <v>87720</v>
+      </c>
+      <c r="R57" s="0" t="n">
+        <v>92412</v>
+      </c>
+      <c r="S57" s="0" t="n">
+        <v>90243</v>
+      </c>
+      <c r="T57" s="1" t="n">
+        <v>91047</v>
+      </c>
+      <c r="U57" s="0" t="n">
+        <v>92551</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="s">
-        <v>503</v>
+        <v>957</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>150211</v>
+        <v>218710</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>147332</v>
-      </c>
-      <c r="E58" s="0" t="n">
-        <v>147155</v>
+        <v>212603</v>
+      </c>
+      <c r="E58" s="1" t="n">
+        <v>231364</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>143443</v>
-      </c>
-      <c r="G58" s="0" t="n">
-        <v>150211</v>
+        <v>208969</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>54475</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>121652</v>
+        <v>65679</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>130954</v>
+        <v>93190</v>
       </c>
       <c r="K58" s="0" t="n">
-        <v>123881</v>
+        <v>59403</v>
       </c>
       <c r="L58" s="0" t="n">
-        <v>120823</v>
+        <v>54945</v>
+      </c>
+      <c r="M58" s="0" t="n">
+        <v>40478</v>
+      </c>
+      <c r="N58" s="0" t="n">
+        <v>63594</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <v>64555</v>
+      </c>
+      <c r="P58" s="0" t="n">
+        <v>52862</v>
+      </c>
+      <c r="Q58" s="1" t="n">
+        <v>43132</v>
+      </c>
+      <c r="R58" s="0" t="n">
+        <v>52619</v>
+      </c>
+      <c r="S58" s="0" t="n">
+        <v>48968</v>
+      </c>
+      <c r="T58" s="1" t="n">
+        <v>46709</v>
+      </c>
+      <c r="U58" s="0" t="n">
+        <v>80338</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="s">
-        <v>504</v>
-      </c>
-      <c r="C59" s="1" t="n">
-        <v>0.1647</v>
-      </c>
-      <c r="D59" s="1" t="n">
-        <v>0.1642</v>
+        <v>958</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>147332</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>147155</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>0.1675</v>
-      </c>
-      <c r="F59" s="1" t="n">
-        <v>0.1646</v>
-      </c>
-      <c r="G59" s="1" t="n">
-        <v>0.1647</v>
-      </c>
-      <c r="I59" s="1" t="n">
-        <v>0.4652</v>
-      </c>
-      <c r="J59" s="1" t="n">
-        <v>0.4624</v>
-      </c>
-      <c r="K59" s="1" t="n">
-        <v>0.4419</v>
-      </c>
-      <c r="L59" s="1" t="n">
-        <v>0.3801</v>
+        <v>143443</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>150211</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>130954</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>123881</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>120823</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>121652</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>138764</v>
+      </c>
+      <c r="M59" s="0" t="n">
+        <v>132706</v>
+      </c>
+      <c r="N59" s="0" t="n">
+        <v>129603</v>
+      </c>
+      <c r="O59" s="0" t="n">
+        <v>133706</v>
+      </c>
+      <c r="P59" s="0" t="n">
+        <v>135006</v>
+      </c>
+      <c r="Q59" s="1" t="n">
+        <v>130006</v>
+      </c>
+      <c r="R59" s="0" t="n">
+        <v>125314</v>
+      </c>
+      <c r="S59" s="0" t="n">
+        <v>127483</v>
+      </c>
+      <c r="T59" s="1" t="n">
+        <v>126679</v>
+      </c>
+      <c r="U59" s="0" t="n">
+        <v>125175</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="s">
-        <v>505</v>
-      </c>
-      <c r="C60" s="1" t="n">
+        <v>959</v>
+      </c>
+      <c r="C60" s="3" t="n">
+        <v>0.1642</v>
+      </c>
+      <c r="D60" s="3" t="n">
+        <v>0.1675</v>
+      </c>
+      <c r="E60" s="4" t="n">
+        <v>0.1646</v>
+      </c>
+      <c r="F60" s="3" t="n">
+        <v>0.1647</v>
+      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3" t="n">
+        <v>0.4624</v>
+      </c>
+      <c r="I60" s="3" t="n">
+        <v>0.4419</v>
+      </c>
+      <c r="J60" s="3" t="n">
+        <v>0.3801</v>
+      </c>
+      <c r="K60" s="3" t="n">
+        <v>0.4652</v>
+      </c>
+      <c r="L60" s="3" t="n">
+        <v>0.4406</v>
+      </c>
+      <c r="M60" s="3" t="n">
+        <v>0.5176</v>
+      </c>
+      <c r="N60" s="3" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="O60" s="3" t="n">
+        <v>0.4235</v>
+      </c>
+      <c r="P60" s="3" t="n">
+        <v>0.4644</v>
+      </c>
+      <c r="Q60" s="4" t="n">
+        <v>0.5165</v>
+      </c>
+      <c r="R60" s="3" t="n">
+        <v>0.4874</v>
+      </c>
+      <c r="S60" s="3" t="n">
+        <v>0.4978</v>
+      </c>
+      <c r="T60" s="4" t="n">
+        <v>0.5085</v>
+      </c>
+      <c r="U60" s="3" t="n">
+        <v>0.403</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0" t="s">
+        <v>960</v>
+      </c>
+      <c r="C61" s="3" t="n">
+        <v>0.1959</v>
+      </c>
+      <c r="D61" s="3" t="n">
+        <v>0.2049</v>
+      </c>
+      <c r="E61" s="4" t="n">
+        <v>0.2109</v>
+      </c>
+      <c r="F61" s="3" t="n">
         <v>0.2069</v>
       </c>
-      <c r="D60" s="1" t="n">
-        <v>0.1959</v>
-      </c>
-      <c r="E60" s="1" t="n">
-        <v>0.2049</v>
-      </c>
-      <c r="F60" s="1" t="n">
-        <v>0.2109</v>
-      </c>
-      <c r="G60" s="1" t="n">
-        <v>0.2069</v>
-      </c>
-      <c r="I60" s="1" t="n">
+      <c r="G61" s="3"/>
+      <c r="H61" s="3" t="n">
+        <v>0.3531</v>
+      </c>
+      <c r="I61" s="3" t="n">
+        <v>0.3655</v>
+      </c>
+      <c r="J61" s="3" t="n">
+        <v>0.3622</v>
+      </c>
+      <c r="K61" s="3" t="n">
         <v>0.3874</v>
       </c>
-      <c r="J60" s="1" t="n">
-        <v>0.3531</v>
-      </c>
-      <c r="K60" s="1" t="n">
-        <v>0.3655</v>
-      </c>
-      <c r="L60" s="1" t="n">
-        <v>0.3622</v>
+      <c r="L61" s="3" t="n">
+        <v>0.3322</v>
+      </c>
+      <c r="M61" s="3" t="n">
+        <v>0.3768</v>
+      </c>
+      <c r="N61" s="3" t="n">
+        <v>0.3541</v>
+      </c>
+      <c r="O61" s="3" t="n">
+        <v>0.3421</v>
+      </c>
+      <c r="P61" s="3" t="n">
+        <v>0.3513</v>
+      </c>
+      <c r="Q61" s="4" t="n">
+        <v>0.3947</v>
+      </c>
+      <c r="R61" s="3" t="n">
+        <v>0.3829</v>
+      </c>
+      <c r="S61" s="3" t="n">
+        <v>0.3877</v>
+      </c>
+      <c r="T61" s="4" t="n">
+        <v>0.3963</v>
+      </c>
+      <c r="U61" s="3" t="n">
+        <v>0.3626</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
-        <v>506</v>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5" t="s">
+        <v>961</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="H1:U1"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
